--- a/SU23/expdata/60002.xlsx
+++ b/SU23/expdata/60002.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/lattice/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B366B936-F410-B84B-B876-FA515CC62CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5472A42-2351-104C-A163-37D384FDE9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32280" yWindow="2020" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>value</t>
   </si>
@@ -54,9 +54,6 @@
     <t>flav</t>
   </si>
   <si>
-    <t>mom1</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -70,6 +67,15 @@
   </si>
   <si>
     <t>syst_u</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>mom</t>
+  </si>
+  <si>
+    <t>pol</t>
   </si>
 </sst>
 </file>
@@ -441,15 +447,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -457,7 +463,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>5</v>
@@ -466,18 +472,24 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -486,7 +498,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1">
         <v>0.251</v>
@@ -498,10 +510,16 @@
         <v>1.6E-2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -511,7 +529,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -521,7 +539,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -531,7 +549,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -541,7 +559,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -551,7 +569,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -561,7 +579,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -571,7 +589,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -581,7 +599,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
